--- a/Kushiluv- Polygon data(internship).xlsx
+++ b/Kushiluv- Polygon data(internship).xlsx
@@ -499,7 +499,11 @@
           <t>75.40288679301739,30.77276157833433,0 75.40296692401171,30.77302112935113,0 75.40337763726713,30.77337401390572,0 75.40369279682636,30.77402158970526,0 75.40188163518906,30.77402907943544,0 75.40191315114498,30.77438167222778,0 75.40243316441774,30.77437648704902,0 75.40244355797768,30.77455854426927,0 75.40186755359173,30.77456257717848,0 75.40187157690525,30.77499438555052,0 75.40115006268024,30.77499697812329,0 75.40114771574736,30.77608930923251,0 75.40046375244856,30.77609046147396,0 75.40047481656075,30.77464121887424,0 75.40048286318778,30.77376088911793,0 75.40049761533737,30.77305454541341,0 75.40037658065557,30.77300614973324,0 75.4004030674696,30.77173863515666,0 75.40115877985954,30.77175476726526,0 75.40117789059877,30.77162715068935,0 75.40185112506153,30.77163147179514,0 75.40186956524849,30.77284022150213,0 75.40288679301739,30.77276157833433,0</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr"/>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>Good Polygon</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -561,7 +565,11 @@
           <t xml:space="preserve">75.41036546230316,30.77064913541994,0 75.40951117873192,30.77065316849302,0 75.40950145572424,30.76962876250239,0 75.40967311710119,30.76938043747329,0 75.40977001190186,30.76921191026139,0 75.41034165769815,30.76889185178665,0 75.41057366877794,30.76907046240787,0 75.41090592741966,30.7693409704433,0 75.41081272065639,30.76950229542728,0 75.4109850525856,30.76961234195763,0 75.41036546230316,30.77064913541994,0 </t>
         </is>
       </c>
-      <c r="G4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Good Polygon</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -592,11 +600,7 @@
           <t>75.44947933810117,30.78251454181623,0 75.44949453975052,30.78131409563298,0 75.44971216319378,30.78125506299521,0 75.45003353057018,30.78121369993099,0 75.45039641262983,30.78115417678702,0 75.45087326072689,30.78105843369362,0 75.45090953099006,30.78105837043393,0 75.45090081901589,30.78252300046901,0 75.44947933810117,30.78251454181623,0 75.44947933810117,30.78251454181623,0</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Good Polygon</t>
-        </is>
-      </c>
+      <c r="G5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -658,11 +662,7 @@
           <t xml:space="preserve">75.30081834644079,30.63177168014839,0 75.30155930668117,30.63173215679537,0 75.30215073376894,30.6317347532205,0 75.30234184116125,30.63170071119639,0 75.30235726386309,30.63223615045966,0 75.30225768685341,30.63224711308603,0 75.30224394053221,30.63278716514241,0 75.30293427407742,30.63277793350864,0 75.30294802039862,30.6333231753673,0 75.3008646145463,30.6333612556363,0 75.30081834644079,30.63177168014839,0 </t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Bad not fixable</t>
-        </is>
-      </c>
+      <c r="G7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -848,7 +848,11 @@
           <t xml:space="preserve">76.79156698286533,29.60505576319654,0 76.79153110831976,29.6029335751619,0 76.79281890392303,29.60289626156619,0 76.79292183369398,29.60447449800285,0 76.79561041295528,29.60444243212232,0 76.79564695805311,29.60560321050067,0 76.79361015558243,29.60558892676959,0 76.79358702152967,29.60508316478298,0 76.79156698286533,29.60505576319654,0 </t>
         </is>
       </c>
-      <c r="G13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Good Polygon</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -941,11 +945,7 @@
           <t xml:space="preserve">76.95170726627111,29.55403247350593,0 76.95148229598999,29.55359061724143,0 76.95412326604128,29.55354220251017,0 76.95408102124929,29.55296414049333,0 76.95548582822084,29.55295159925249,0 76.95549387484789,29.55378398428009,0 76.95754375308752,29.55377931780991,0 76.95755112916231,29.55402955696927,0 76.95756018161774,29.55509875366953,0 76.95751760154963,29.55512529386927,0 76.95753067731857,29.5556219734638,0 76.95619024336338,29.55566017948533,0 76.95621572434902,29.55675298224442,0 76.95479918271303,29.55663574056086,0 76.95478409528732,29.5540569724106,0 76.95170726627111,29.55403247350593,0 </t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Good Polygon</t>
-        </is>
-      </c>
+      <c r="G16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -976,11 +976,7 @@
           <t xml:space="preserve">77.03992713242769,29.5208540503599,0 77.03893203288317,29.52084267213356,0 77.0389199629426,29.52032335685249,0 77.03925121575594,29.52029243125167,0 77.03926999121904,29.5192415387079,0 77.04027783125639,29.51923512011912,0 77.04030867666006,29.51868107767235,0 77.04195488244295,29.51865890424114,0 77.04202059656382,29.5202801777091,0 77.03990165144205,29.52031518782676,0 77.03992713242769,29.5208540503599,0 </t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>Good Polygon</t>
-        </is>
-      </c>
+      <c r="G17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1042,11 +1038,7 @@
           <t xml:space="preserve">76.90796580165625,29.49642030043121,0 76.90568089485168,29.49629890332123,0 76.90560277551413,29.4968209682256,0 76.9036752730608,29.49671795619093,0 76.90381642431021,29.49572284870534,0 76.90565206110477,29.49575144723875,0 76.90567385405302,29.49471051378573,0 76.9066870585084,29.49471226473408,0 76.90670348703861,29.49526760565787,0 76.90807610750198,29.49528628233596,0 76.90812505781651,29.49578588219681,0 76.90913625061512,29.49581097885378,0 76.90927874296904,29.49629073235667,0 76.90813176333904,29.49725052436257,0 76.90807811915874,29.49645765335886,0 76.90796580165625,29.49642030043121,0 </t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>Good Polygon</t>
-        </is>
-      </c>
+      <c r="G19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Kushiluv- Polygon data(internship).xlsx
+++ b/Kushiluv- Polygon data(internship).xlsx
@@ -752,10 +752,14 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t xml:space="preserve">74.04089781286125,30.04983873106723,0 74.04128419100407,30.04981460359325,0 74.04128374277002,30.04879338707973,0 74.04261714474397,30.0488075723396,0 74.04260118772308,30.05046927665487,0 74.04261920660612,30.05180426097061,0 74.04169773128763,30.05179305257542,0 74.04169593835532,30.05144363573627,0 74.04089790250822,30.05143338738495,0 74.04089781286125,30.04983873106723,0 74.04089781286125,30.04983873106723,0 </t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t>74.02583599090578,30.05605700974394,0 74.02549266815187,30.05323396722543,0 74.02433395385744,30.049705050900876,0 74.02364730834962,30.042869739559226,0 74.04948234558107,30.03870888434231,0 74.05317306518556,30.049147842091724,0 74.05381679534914,30.05427404488543,0 74.04815196990968,30.056874191241224,0 74.04411792755128,30.058359958502557,0 74.04089927673341,30.058879971776534,0 74.03677940368654,30.060142849784942,0 74.0272092819214,30.06170285331865,0</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Bad not fixable</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -883,7 +887,11 @@
           <t xml:space="preserve">76.8218494579196,29.59333652995871,0 76.82179111987352,29.59050330299646,0 76.823835298419,29.59051117480125,0 76.82387385517359,29.59327472342791,0 76.8218494579196,29.59333652995871,0 </t>
         </is>
       </c>
-      <c r="G14" t="inlineStr"/>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Good Polygon</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">

--- a/Kushiluv- Polygon data(internship).xlsx
+++ b/Kushiluv- Polygon data(internship).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,20 +466,26 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
+          <t>Area</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>polygon_validation</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>validation_remark</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>166028</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A2" t="n">
+        <v>166028</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -499,22 +505,18 @@
           <t>75.40288679301739,30.77276157833433,0 75.40296692401171,30.77302112935113,0 75.40337763726713,30.77337401390572,0 75.40369279682636,30.77402158970526,0 75.40188163518906,30.77402907943544,0 75.40191315114498,30.77438167222778,0 75.40243316441774,30.77437648704902,0 75.40244355797768,30.77455854426927,0 75.40186755359173,30.77456257717848,0 75.40187157690525,30.77499438555052,0 75.40115006268024,30.77499697812329,0 75.40114771574736,30.77608930923251,0 75.40046375244856,30.77609046147396,0 75.40047481656075,30.77464121887424,0 75.40048286318778,30.77376088911793,0 75.40049761533737,30.77305454541341,0 75.40037658065557,30.77300614973324,0 75.4004030674696,30.77173863515666,0 75.40115877985954,30.77175476726526,0 75.40117789059877,30.77162715068935,0 75.40185112506153,30.77163147179514,0 75.40186956524849,30.77284022150213,0 75.40288679301739,30.77276157833433,0</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Good Polygon</t>
-        </is>
-      </c>
+      <c r="G2" t="n">
+        <v>19.23716898572448</v>
+      </c>
+      <c r="H2" t="inlineStr"/>
+      <c r="I2" t="inlineStr"/>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>163723</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A3" t="n">
+        <v>163723</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -534,18 +536,18 @@
           <t>75.40529809892178,30.77157155244421,0 75.40528301149607,30.77116450317346,0 75.40449947118759,30.77115442054404,0 75.40373671799898,30.77116335087301,0 75.40244322270155,30.77115787744569,0 75.40234263986349,30.77113655988363,0 75.40197215974331,30.77027348273019,0 75.40176663547753,30.77033916444123,0 75.40174752473831,30.77025331728359,0 75.40115911513567,30.77025735037323,0 75.40116213262081,30.7729180003961,0 75.40323983877897,30.77264490978015,0 75.40344100445509,30.77253717128595,0 75.40329784154892,30.77170377826991,0 75.40352113544941,30.77167410669522,0 75.40340814739466,30.77116709584942,0 75.40381383150815,30.77116450317346,0 75.4038654640317,30.7713344673388,0 75.40385574102402,30.77144422369958,0 75.40382020175457,30.77159690294339,0 75.4038617759943,30.7723263030819,0 75.40529809892178,30.77157155244421,0</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr"/>
+      <c r="G3" t="n">
+        <v>14.84156294075118</v>
+      </c>
+      <c r="H3" t="inlineStr"/>
+      <c r="I3" t="inlineStr"/>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>163721</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A4" t="n">
+        <v>163721</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -565,22 +567,18 @@
           <t xml:space="preserve">75.41036546230316,30.77064913541994,0 75.40951117873192,30.77065316849302,0 75.40950145572424,30.76962876250239,0 75.40967311710119,30.76938043747329,0 75.40977001190186,30.76921191026139,0 75.41034165769815,30.76889185178665,0 75.41057366877794,30.76907046240787,0 75.41090592741966,30.7693409704433,0 75.41081272065639,30.76950229542728,0 75.4109850525856,30.76961234195763,0 75.41036546230316,30.77064913541994,0 </t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Good Polygon</t>
-        </is>
-      </c>
+      <c r="G4" t="n">
+        <v>4.86905480040647</v>
+      </c>
+      <c r="H4" t="inlineStr"/>
+      <c r="I4" t="inlineStr"/>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>40816</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A5" t="n">
+        <v>40816</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -600,18 +598,18 @@
           <t>75.44947933810117,30.78251454181623,0 75.44949453975052,30.78131409563298,0 75.44971216319378,30.78125506299521,0 75.45003353057018,30.78121369993099,0 75.45039641262983,30.78115417678702,0 75.45087326072689,30.78105843369362,0 75.45090953099006,30.78105837043393,0 75.45090081901589,30.78252300046901,0 75.44947933810117,30.78251454181623,0 75.44947933810117,30.78251454181623,0</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr"/>
+      <c r="G5" t="n">
+        <v>4.969527732006752</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>40816</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A6" t="n">
+        <v>40816</v>
+      </c>
+      <c r="B6" t="n">
+        <v>2</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -631,18 +629,18 @@
           <t>75.45299407854259,30.78307116106206,0 75.45299532309302,30.78222010769985,0 75.45343624888575,30.78221853200477,0 75.45343304862257,30.78264410887891,0 75.45371840515578,30.7826431350502,0 75.45372036086847,30.78305960889951,0 75.45299407854259,30.78307116106206,0 75.45299407854259,30.78307116106206,0</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr"/>
+      <c r="G6" t="n">
+        <v>1.291003838590159</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>158772</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A7" t="n">
+        <v>158772</v>
+      </c>
+      <c r="B7" t="n">
+        <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -662,18 +660,18 @@
           <t xml:space="preserve">75.30081834644079,30.63177168014839,0 75.30155930668117,30.63173215679537,0 75.30215073376894,30.6317347532205,0 75.30234184116125,30.63170071119639,0 75.30235726386309,30.63223615045966,0 75.30225768685341,30.63224711308603,0 75.30224394053221,30.63278716514241,0 75.30293427407742,30.63277793350864,0 75.30294802039862,30.6333231753673,0 75.3008646145463,30.6333612556363,0 75.30081834644079,30.63177168014839,0 </t>
         </is>
       </c>
-      <c r="G7" t="inlineStr"/>
+      <c r="G7" t="n">
+        <v>7.077876901175668</v>
+      </c>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>106533</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="A8" t="n">
+        <v>106533</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -693,18 +691,18 @@
           <t xml:space="preserve">75.38743148911607,30.67186521904931,0 75.38897317049179,30.67123801742174,0 75.39008519906861,30.67329511480239,0 75.38855909250967,30.67393121716372,0 75.38743148911607,30.67186521904931,0 75.38743148911607,30.67186521904931,0 </t>
         </is>
       </c>
-      <c r="G8" t="inlineStr"/>
+      <c r="G8" t="n">
+        <v>10.15844958127223</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>77063</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A9" t="n">
+        <v>77063</v>
+      </c>
+      <c r="B9" t="n">
+        <v>1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -724,18 +722,18 @@
           <t xml:space="preserve">75.36460494831806,30.68280672075303,0 75.36525275819989,30.68279593240206,0 75.36526405459931,30.68303771974495,0 75.36736810556319,30.68304527365189,0 75.36738055811394,30.68358268468497,0 75.36756707941279,30.68358663902193,0 75.36757428409356,30.6841196716889,0 75.36891657243635,30.68411138980859,0 75.3687054147472,30.68447028732762,0 75.36616562909825,30.68436554299804,0 75.36642037451678,30.68457533838228,0 75.36784557120815,30.68459373076497,0 75.36845218523666,30.68464573125562,0 75.36856096635304,30.68464541071386,0 75.36855100438977,30.68474396667359,0 75.36840646690291,30.68489668583938,0 75.36819468588199,30.68508545683624,0 75.36837142210081,30.68521930264778,0 75.36841313786685,30.68527744836423,0 75.36818623598214,30.68558709052678,0 75.36778891226712,30.68604957014811,0 75.36741987258887,30.68575049408959,0 75.36695112241891,30.68513824249702,0 75.36650354026469,30.68464672834132,0 75.36634236767236,30.68451732336124,0 75.3661396564269,30.68435218523551,0 75.36460565990531,30.68299032466656,0 75.36460494831806,30.68280672075303,0 75.36460494831806,30.68280672075303,0 </t>
         </is>
       </c>
-      <c r="G9" t="inlineStr"/>
+      <c r="G9" t="n">
+        <v>13.23720915046712</v>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>93144</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A10" t="n">
+        <v>93144</v>
+      </c>
+      <c r="B10" t="n">
+        <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -752,25 +750,21 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>74.02583599090578,30.05605700974394,0 74.02549266815187,30.05323396722543,0 74.02433395385744,30.049705050900876,0 74.02364730834962,30.042869739559226,0 74.04948234558107,30.03870888434231,0 74.05317306518556,30.049147842091724,0 74.05381679534914,30.05427404488543,0 74.04815196990968,30.056874191241224,0 74.04411792755128,30.058359958502557,0 74.04089927673341,30.058879971776534,0 74.03677940368654,30.060142849784942,0 74.0272092819214,30.06170285331865,0</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Bad not fixable</t>
-        </is>
-      </c>
+          <t xml:space="preserve">74.04089781286125,30.04983873106723,0 74.04128419100407,30.04981460359325,0 74.04128374277002,30.04879338707973,0 74.04261714474397,30.0488075723396,0 74.04260118772308,30.05046927665487,0 74.04261920660612,30.05180426097061,0 74.04169773128763,30.05179305257542,0 74.04169593835532,30.05144363573627,0 74.04089790250822,30.05143338738495,0 74.04089781286125,30.04983873106723,0 74.04089781286125,30.04983873106723,0 </t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>11.75066274553506</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>164166</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A11" t="n">
+        <v>164166</v>
+      </c>
+      <c r="B11" t="n">
+        <v>2</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -790,18 +784,18 @@
           <t xml:space="preserve">76.73769112676382,29.60837567354319,0 76.7409959435463,29.6084013252478,0 76.74099963158369,29.60946324179142,0 76.74239974468946,29.60948656127161,0 76.74246344715357,29.61047471928705,0 76.74033109098673,29.61054001316288,0 76.74034349620342,29.61064057730854,0 76.73981811851263,29.61065398585371,0 76.73968032002449,29.60946236731081,0 76.73820678144693,29.60944866711358,0 76.7378269135952,29.60887500611997,0 76.73769112676382,29.60837567354319,0 </t>
         </is>
       </c>
-      <c r="G11" t="inlineStr"/>
+      <c r="G11" t="n">
+        <v>16.39976752549545</v>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>148724</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A12" t="n">
+        <v>148724</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -821,18 +815,18 @@
           <t xml:space="preserve">76.79153848439455,29.60345713009613,0 76.79218590259552,29.60346879053143,0 76.79220467805862,29.6035098935551,0 76.79286886006594,29.60351193413032,0 76.79300229996443,29.60507995821474,0 76.79156664758921,29.60507150453436,0 76.79153848439455,29.60345713009613,0 </t>
         </is>
       </c>
-      <c r="G12" t="inlineStr"/>
+      <c r="G12" t="n">
+        <v>5.822398904355146</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
+      <c r="I12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>148916</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A13" t="n">
+        <v>148916</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -852,22 +846,18 @@
           <t xml:space="preserve">76.79156698286533,29.60505576319654,0 76.79153110831976,29.6029335751619,0 76.79281890392303,29.60289626156619,0 76.79292183369398,29.60447449800285,0 76.79561041295528,29.60444243212232,0 76.79564695805311,29.60560321050067,0 76.79361015558243,29.60558892676959,0 76.79358702152967,29.60508316478298,0 76.79156698286533,29.60505576319654,0 </t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>Good Polygon</t>
-        </is>
-      </c>
+      <c r="G13" t="n">
+        <v>14.8626122193352</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>162157</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A14" t="n">
+        <v>162157</v>
+      </c>
+      <c r="B14" t="n">
+        <v>1</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -887,22 +877,18 @@
           <t xml:space="preserve">76.8218494579196,29.59333652995871,0 76.82179111987352,29.59050330299646,0 76.823835298419,29.59051117480125,0 76.82387385517359,29.59327472342791,0 76.8218494579196,29.59333652995871,0 </t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Good Polygon</t>
-        </is>
-      </c>
+      <c r="G14" t="n">
+        <v>15.109446777607</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>91030</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A15" t="n">
+        <v>91030</v>
+      </c>
+      <c r="B15" t="n">
+        <v>1</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -922,18 +908,18 @@
           <t xml:space="preserve">76.8630990682924,29.63940816250791,0 76.86483687865933,29.63940159001277,0 76.86501986946946,29.63959163172415,0 76.86440447381737,29.64069315105209,0 76.86738245003909,29.64065566946141,0 76.86737593991825,29.6416903457238,0 76.86544409039182,29.64174443518188,0 76.86548271184269,29.64217382977703,0 76.86421629146145,29.64105403160758,0 76.86379866461104,29.64065235492138,0 76.86316733893246,29.64005216912123,0 76.8630990682924,29.63940816250791,0 76.8630990682924,29.63940816250791,0 </t>
         </is>
       </c>
-      <c r="G15" t="inlineStr"/>
+      <c r="G15" t="n">
+        <v>13.41925492986151</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr"/>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>157810</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A16" t="n">
+        <v>157810</v>
+      </c>
+      <c r="B16" t="n">
+        <v>2</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -953,18 +939,22 @@
           <t xml:space="preserve">76.95170726627111,29.55403247350593,0 76.95148229598999,29.55359061724143,0 76.95412326604128,29.55354220251017,0 76.95408102124929,29.55296414049333,0 76.95548582822084,29.55295159925249,0 76.95549387484789,29.55378398428009,0 76.95754375308752,29.55377931780991,0 76.95755112916231,29.55402955696927,0 76.95756018161774,29.55509875366953,0 76.95751760154963,29.55512529386927,0 76.95753067731857,29.5556219734638,0 76.95619024336338,29.55566017948533,0 76.95621572434902,29.55675298224442,0 76.95479918271303,29.55663574056086,0 76.95478409528732,29.5540569724106,0 76.95170726627111,29.55403247350593,0 </t>
         </is>
       </c>
-      <c r="G16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>24.23821727873494</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Modified</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>154982</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A17" t="n">
+        <v>154982</v>
+      </c>
+      <c r="B17" t="n">
+        <v>1</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -984,18 +974,18 @@
           <t xml:space="preserve">77.03992713242769,29.5208540503599,0 77.03893203288317,29.52084267213356,0 77.0389199629426,29.52032335685249,0 77.03925121575594,29.52029243125167,0 77.03926999121904,29.5192415387079,0 77.04027783125639,29.51923512011912,0 77.04030867666006,29.51868107767235,0 77.04195488244295,29.51865890424114,0 77.04202059656382,29.5202801777091,0 77.03990165144205,29.52031518782676,0 77.03992713242769,29.5208540503599,0 </t>
         </is>
       </c>
-      <c r="G17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>11.66686954406143</v>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr"/>
     </row>
     <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>157427</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A18" t="n">
+        <v>157427</v>
+      </c>
+      <c r="B18" t="n">
+        <v>1</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1015,18 +1005,18 @@
           <t xml:space="preserve">76.90743673592806,29.49786421451441,0 76.90570000559092,29.49837985143907,0 76.90442763268948,29.4983544636044,0 76.9044142216444,29.49782452757951,0 76.90354317426682,29.49782919663147,0 76.90337050706148,29.49880152201532,0 76.90299030393362,29.49854385086144,0 76.90257422626019,29.49783736747192,0 76.90157141536474,29.49712154098565,0 76.90261781215668,29.49703749742996,0 76.90261479467154,29.49648508440634,0 76.90187584608793,29.49653235917284,0 76.90173000097275,29.49575203088221,0 76.90162371844053,29.4952232485336,0 76.90295342355967,29.49523433781649,0 76.90292123705149,29.49601583737938,0 76.90374366939068,29.4959096144919,0 76.90377920866013,29.49565310326863,0 76.90415270626545,29.4957316033593,0 76.90743003040552,29.49579843052609,0 76.90743673592806,29.49786421451441,0 </t>
         </is>
       </c>
-      <c r="G18" t="inlineStr"/>
+      <c r="G18" t="n">
+        <v>35.2552433506886</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
     </row>
     <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>157430</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A19" t="n">
+        <v>157430</v>
+      </c>
+      <c r="B19" t="n">
+        <v>1</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1046,7 +1036,11 @@
           <t xml:space="preserve">76.90796580165625,29.49642030043121,0 76.90568089485168,29.49629890332123,0 76.90560277551413,29.4968209682256,0 76.9036752730608,29.49671795619093,0 76.90381642431021,29.49572284870534,0 76.90565206110477,29.49575144723875,0 76.90567385405302,29.49471051378573,0 76.9066870585084,29.49471226473408,0 76.90670348703861,29.49526760565787,0 76.90807610750198,29.49528628233596,0 76.90812505781651,29.49578588219681,0 76.90913625061512,29.49581097885378,0 76.90927874296904,29.49629073235667,0 76.90813176333904,29.49725052436257,0 76.90807811915874,29.49645765335886,0 76.90796580165625,29.49642030043121,0 </t>
         </is>
       </c>
-      <c r="G19" t="inlineStr"/>
+      <c r="G19" t="n">
+        <v>16.81185589804555</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Kushiluv- Polygon data(internship).xlsx
+++ b/Kushiluv- Polygon data(internship).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I19"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,591 +456,330 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
           <t>MDO_ID</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Coordinates</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Area</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>polygon_validation</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>validation_remark</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>166028</v>
+        <v>194900</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>PUNJAB</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ludhiana </t>
-        </is>
-      </c>
-      <c r="E2" t="n">
-        <v>86</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>75.40288679301739,30.77276157833433,0 75.40296692401171,30.77302112935113,0 75.40337763726713,30.77337401390572,0 75.40369279682636,30.77402158970526,0 75.40188163518906,30.77402907943544,0 75.40191315114498,30.77438167222778,0 75.40243316441774,30.77437648704902,0 75.40244355797768,30.77455854426927,0 75.40186755359173,30.77456257717848,0 75.40187157690525,30.77499438555052,0 75.40115006268024,30.77499697812329,0 75.40114771574736,30.77608930923251,0 75.40046375244856,30.77609046147396,0 75.40047481656075,30.77464121887424,0 75.40048286318778,30.77376088911793,0 75.40049761533737,30.77305454541341,0 75.40037658065557,30.77300614973324,0 75.4004030674696,30.77173863515666,0 75.40115877985954,30.77175476726526,0 75.40117789059877,30.77162715068935,0 75.40185112506153,30.77163147179514,0 75.40186956524849,30.77284022150213,0 75.40288679301739,30.77276157833433,0</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
-        <v>19.23716898572448</v>
-      </c>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
+          <t>Gurdaspur</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>25-10-2022</t>
+        </is>
+      </c>
+      <c r="F2" t="n">
+        <v>127</v>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>32.02254879598777-75.04611745476723,32.023000484550025-75.04663176834583,32.02314886759427-75.04678532481194,32.023529488901865-75.04718095064163,32.023529488901865-75.04718095064163,32.02360851239556-75.04674978554249,32.0237941320605-75.04674542695284,32.024085494481994-75.04670251160859,32.02406190126673-75.0452671945095,32.0242026077015-75.04526048898698,32.02420147068069-75.04457987844944,32.02466679527601-75.04457250237465,32.025161963996524-75.04459463059902,32.025214834895785-75.0432213395834,32.02512017890939-75.04322469234467,32.025089763902024-75.04346139729023,32.02488709167908-75.04346609115602,32.02484985451785-75.04323810338974,32.024695789155466-75.04326090216637,32.024644907733496-75.043891556561,32.02426031149006-75.04393648356199,32.0241980596181-75.0445071235299,32.02356644234266-75.04454266279936,32.023556493340834-75.04524104297161,32.02337684260772-75.04533424973488,32.023364051007285-75.04571679979563,32.023068990927904-75.04571042954922,32.02303090025108-75.0460460409522</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7.871343471078505</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>163723</v>
+        <v>194899</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>HARYANA</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ludhiana </t>
-        </is>
-      </c>
-      <c r="E3" t="n">
-        <v>86</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>75.40529809892178,30.77157155244421,0 75.40528301149607,30.77116450317346,0 75.40449947118759,30.77115442054404,0 75.40373671799898,30.77116335087301,0 75.40244322270155,30.77115787744569,0 75.40234263986349,30.77113655988363,0 75.40197215974331,30.77027348273019,0 75.40176663547753,30.77033916444123,0 75.40174752473831,30.77025331728359,0 75.40115911513567,30.77025735037323,0 75.40116213262081,30.7729180003961,0 75.40323983877897,30.77264490978015,0 75.40344100445509,30.77253717128595,0 75.40329784154892,30.77170377826991,0 75.40352113544941,30.77167410669522,0 75.40340814739466,30.77116709584942,0 75.40381383150815,30.77116450317346,0 75.4038654640317,30.7713344673388,0 75.40385574102402,30.77144422369958,0 75.40382020175457,30.77159690294339,0 75.4038617759943,30.7723263030819,0 75.40529809892178,30.77157155244421,0</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
-        <v>14.84156294075118</v>
-      </c>
-      <c r="H3" t="inlineStr"/>
-      <c r="I3" t="inlineStr"/>
+          <t>Kurukshetra</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25-5-2015</t>
+        </is>
+      </c>
+      <c r="F3" t="n">
+        <v>136</v>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>29.92402080154259-76.58455945551395,29.925621592185653-76.5846586972475,29.925655880031815-76.58389862626791,29.929506504350787-76.58401127904654,29.929471636703582-76.58114768564701,29.928454948852934-76.58117987215519,29.928379692037325-76.5825729444623,29.926265504341583-76.58250957727432,29.92618501554991-76.5803674980998,29.92462869239892-76.58046841621399,29.92457319200147-76.58016800880432,29.9240565428381-76.580153927207</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>39.71442347686874</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>163721</v>
+        <v>194900</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>PUNJAB</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ludhiana </t>
-        </is>
-      </c>
-      <c r="E4" t="n">
-        <v>86</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">75.41036546230316,30.77064913541994,0 75.40951117873192,30.77065316849302,0 75.40950145572424,30.76962876250239,0 75.40967311710119,30.76938043747329,0 75.40977001190186,30.76921191026139,0 75.41034165769815,30.76889185178665,0 75.41057366877794,30.76907046240787,0 75.41090592741966,30.7693409704433,0 75.41081272065639,30.76950229542728,0 75.4109850525856,30.76961234195763,0 75.41036546230316,30.77064913541994,0 </t>
-        </is>
-      </c>
-      <c r="G4" t="n">
-        <v>4.86905480040647</v>
-      </c>
-      <c r="H4" t="inlineStr"/>
-      <c r="I4" t="inlineStr"/>
+          <t>Gurdaspur</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>25-5-2022</t>
+        </is>
+      </c>
+      <c r="F4" t="n">
+        <v>127</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>32.019797114600735-75.04324480891229,32.020960051187565-75.04445146769285,32.02116529048026-75.04418358206749,32.021330732345525-75.04397135227919,32.021359443016784-75.04378527402876,32.02136768667321-75.04344832152128,32.02119599105515-75.04341244697571,32.02123578808136-75.04323575645685,32.02135233641581-75.0431264564395,32.02145410288905-75.04297658801079,32.02136285418504-75.04283241927624,32.02156354436121-75.04259906709194,32.021724295028584-75.0425630249083,32.02248682721329-75.04250586032867,32.02303260580412-75.04248272627592,32.02301754008459-75.041798427701,32.02241974170379-75.04181753844023,32.022469487319356-75.04147253930569,32.02195099454828-75.0414789095521,32.02192683225877-75.0418309494853,32.021614427494654-75.04182156175376,32.02140265113879-75.04181418567897,32.021374224745024-75.04138335585594,32.02064593752936-75.04139341413975,32.02062234342829-75.04185877740383,32.02030822861225-75.04187855869532,32.020285487226296-75.04248172044754,32.020257913288255-75.0432002171874</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>11.14072702500456</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>40816</v>
+        <v>194898</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>HARYANA</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ludhiana </t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>86</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>75.44947933810117,30.78251454181623,0 75.44949453975052,30.78131409563298,0 75.44971216319378,30.78125506299521,0 75.45003353057018,30.78121369993099,0 75.45039641262983,30.78115417678702,0 75.45087326072689,30.78105843369362,0 75.45090953099006,30.78105837043393,0 75.45090081901589,30.78252300046901,0 75.44947933810117,30.78251454181623,0 75.44947933810117,30.78251454181623,0</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
-        <v>4.969527732006752</v>
-      </c>
-      <c r="H5" t="inlineStr"/>
-      <c r="I5" t="inlineStr"/>
+          <t>Panipat</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>25-10-2022</t>
+        </is>
+      </c>
+      <c r="F5" t="n">
+        <v>121</v>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>29.364067276362118-77.05227803438902,29.368772762162102-77.05263946205378,29.36934603115276-77.05183111131191,29.369777295605296-77.05074816942215,29.366963817288873-77.04812731593847</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>38.2995890893251</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>40816</v>
+        <v>194891</v>
       </c>
       <c r="B6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>PUNJAB</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t xml:space="preserve"> Ludhiana </t>
-        </is>
-      </c>
-      <c r="E6" t="n">
-        <v>86</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>75.45299407854259,30.78307116106206,0 75.45299532309302,30.78222010769985,0 75.45343624888575,30.78221853200477,0 75.45343304862257,30.78264410887891,0 75.45371840515578,30.7826431350502,0 75.45372036086847,30.78305960889951,0 75.45299407854259,30.78307116106206,0 75.45299407854259,30.78307116106206,0</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
-        <v>1.291003838590159</v>
-      </c>
-      <c r="H6" t="inlineStr"/>
-      <c r="I6" t="inlineStr"/>
+          <t>Gurdaspur</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>25-10-2022</t>
+        </is>
+      </c>
+      <c r="F6" t="n">
+        <v>127</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>32.01054198972966-75.01154579222202,32.01025683880686-75.01123532652855,32.009818449516274-75.01053225249052,32.009569971127405-75.01007225364447,32.01055620460786-75.01001559197903,32.01053829386095-75.00867649912834,32.01082713976531-75.00866442918777,32.01085158927839-75.0092625617981,32.01095166163617-75.0093262642622,32.01094910296929-75.010123886168,32.01096445496948-75.01061137765646,32.01054710708606-75.01059997826815,32.010957347562304-75.01069318503141,32.0109283493353-75.01134261488914</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4.796419143902971</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>158772</v>
+        <v>194897</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>HARYANA</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Moga</t>
-        </is>
-      </c>
-      <c r="E7" t="n">
-        <v>86</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">75.30081834644079,30.63177168014839,0 75.30155930668117,30.63173215679537,0 75.30215073376894,30.6317347532205,0 75.30234184116125,30.63170071119639,0 75.30235726386309,30.63223615045966,0 75.30225768685341,30.63224711308603,0 75.30224394053221,30.63278716514241,0 75.30293427407742,30.63277793350864,0 75.30294802039862,30.6333231753673,0 75.3008646145463,30.6333612556363,0 75.30081834644079,30.63177168014839,0 </t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>7.077876901175668</v>
-      </c>
-      <c r="H7" t="inlineStr"/>
-      <c r="I7" t="inlineStr"/>
+          <t>Panipat</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>25-10-2022</t>
+        </is>
+      </c>
+      <c r="F7" t="n">
+        <v>121</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>29.364081886378845-77.05228742212057,29.36875260126728-77.05873679369688,29.370538432000895-77.0552197471261,29.3703496823927-77.05334957689047,29.367574204638597-77.05264985561371</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>54.38690059495871</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>106533</v>
+        <v>194891</v>
       </c>
       <c r="B8" t="n">
         <v>3</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>PUNJAB</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Moga</t>
-        </is>
-      </c>
-      <c r="E8" t="n">
-        <v>86</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">75.38743148911607,30.67186521904931,0 75.38897317049179,30.67123801742174,0 75.39008519906861,30.67329511480239,0 75.38855909250967,30.67393121716372,0 75.38743148911607,30.67186521904931,0 75.38743148911607,30.67186521904931,0 </t>
-        </is>
-      </c>
-      <c r="G8" t="n">
-        <v>10.15844958127223</v>
-      </c>
-      <c r="H8" t="inlineStr"/>
-      <c r="I8" t="inlineStr"/>
+          <t>Gurdaspur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>25-10-2022</t>
+        </is>
+      </c>
+      <c r="F8" t="n">
+        <v>127</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>31.968251787310155-74.94220767170191,31.970624176324986-74.94218319654465,31.970651480769135-74.94151130318642,31.970628727066238-74.94083035737276,31.97007495708298-74.94080554693937,31.97010140842163-74.93935782462358,31.969992189941824-74.93935246020555,31.96954080906498-74.94013767689466,31.968447189609417-74.94006089866163,31.96845174045849-74.94040170684458,31.9684747791291-74.9407646432519,31.96900153826462-74.94081627577543,31.96900153826462-74.94081627577543,31.969374704894463-74.94021881371737,31.969417937515725-74.94029995054007,31.968781676422747-74.94125548750162</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10.57035378793225</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>77063</v>
+        <v>194891</v>
       </c>
       <c r="B9" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>PUNJAB</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Moga</t>
-        </is>
-      </c>
-      <c r="E9" t="n">
-        <v>86</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">75.36460494831806,30.68280672075303,0 75.36525275819989,30.68279593240206,0 75.36526405459931,30.68303771974495,0 75.36736810556319,30.68304527365189,0 75.36738055811394,30.68358268468497,0 75.36756707941279,30.68358663902193,0 75.36757428409356,30.6841196716889,0 75.36891657243635,30.68411138980859,0 75.3687054147472,30.68447028732762,0 75.36616562909825,30.68436554299804,0 75.36642037451678,30.68457533838228,0 75.36784557120815,30.68459373076497,0 75.36845218523666,30.68464573125562,0 75.36856096635304,30.68464541071386,0 75.36855100438977,30.68474396667359,0 75.36840646690291,30.68489668583938,0 75.36819468588199,30.68508545683624,0 75.36837142210081,30.68521930264778,0 75.36841313786685,30.68527744836423,0 75.36818623598214,30.68558709052678,0 75.36778891226712,30.68604957014811,0 75.36741987258887,30.68575049408959,0 75.36695112241891,30.68513824249702,0 75.36650354026469,30.68464672834132,0 75.36634236767236,30.68451732336124,0 75.3661396564269,30.68435218523551,0 75.36460565990531,30.68299032466656,0 75.36460494831806,30.68280672075303,0 75.36460494831806,30.68280672075303,0 </t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>13.23720915046712</v>
-      </c>
-      <c r="H9" t="inlineStr"/>
-      <c r="I9" t="inlineStr"/>
+          <t>Gurdaspur</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>25-10-2021</t>
+        </is>
+      </c>
+      <c r="F9" t="n">
+        <v>127</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>31.99517726063875-75.01095302402973,31.994942675519887-75.01084037125109,31.994660888238343-75.0107179954648,31.994356636619205-75.01059796661139,31.994085652785202-75.01046687364578,31.993802725472452-75.0103475153446,31.99352292514097-75.01024022698402,31.993524346892805-75.01046855002642,31.993524346892805-75.01081053167582,31.993547094918746-75.0112085044384,31.993556478477824-75.01141402870417,31.9940927615004-75.01144152134657,31.99409731107785-75.01184083521366,31.994093045849016-75.01216974109413,31.993680170757536-75.01215096563101,31.993235446472337-75.01213151961565,31.99300313120245-75.01212783157824,31.99298095174567-75.01144286245108,31.99238494792413-75.0114519149065,31.99183415278117-75.0114468857646,31.991858891715005-75.01165609806776,31.99207443294825-75.01216068863869,31.9923203995679-75.01250501722097,31.992591672970775-75.01269277185202,31.992842472195512-75.01283928751945,31.99301137740937-75.01286912709475,31.993163789927962-75.01313298940659,31.99337534718327-75.0134189799428,31.9935328774032-75.01362081617118,31.99354652621816-75.01335460692644,31.99357808909504-75.01302938908339,31.99357808909504-75.01281045377254,31.993931251354876-75.01279067248106,31.99412062765873-75.01278262585402,31.994108116323396-75.0125727429986,31.994088780619975-75.01230452209711,31.994124892886294-75.01214426010847,31.99438308095886-75.0121221318841,31.994583261519278-75.01211609691381,31.99460003799525-75.01184117048979,31.994616814468177-75.01150757074356,31.994830927488607-75.01149583607912,31.994987602170927-75.01148946583271,31.995116410738277-75.01147840172052,31.995114989011146-75.01124773174524</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10.13084356885098</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>93144</v>
+        <v>194891</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Punjab</t>
+          <t>PUNJAB</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Fazilka</t>
-        </is>
-      </c>
-      <c r="E10" t="n">
-        <v>86</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">74.04089781286125,30.04983873106723,0 74.04128419100407,30.04981460359325,0 74.04128374277002,30.04879338707973,0 74.04261714474397,30.0488075723396,0 74.04260118772308,30.05046927665487,0 74.04261920660612,30.05180426097061,0 74.04169773128763,30.05179305257542,0 74.04169593835532,30.05144363573627,0 74.04089790250822,30.05143338738495,0 74.04089781286125,30.04983873106723,0 74.04089781286125,30.04983873106723,0 </t>
-        </is>
-      </c>
-      <c r="G10" t="n">
-        <v>11.75066274553506</v>
-      </c>
-      <c r="H10" t="inlineStr"/>
-      <c r="I10" t="inlineStr"/>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>164166</v>
-      </c>
-      <c r="B11" t="n">
-        <v>2</v>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Haryana</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Karnal</t>
-        </is>
-      </c>
-      <c r="E11" t="n">
-        <v>93</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t xml:space="preserve">76.73769112676382,29.60837567354319,0 76.7409959435463,29.6084013252478,0 76.74099963158369,29.60946324179142,0 76.74239974468946,29.60948656127161,0 76.74246344715357,29.61047471928705,0 76.74033109098673,29.61054001316288,0 76.74034349620342,29.61064057730854,0 76.73981811851263,29.61065398585371,0 76.73968032002449,29.60946236731081,0 76.73820678144693,29.60944866711358,0 76.7378269135952,29.60887500611997,0 76.73769112676382,29.60837567354319,0 </t>
-        </is>
-      </c>
-      <c r="G11" t="n">
-        <v>16.39976752549545</v>
-      </c>
-      <c r="H11" t="inlineStr"/>
-      <c r="I11" t="inlineStr"/>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>148724</v>
-      </c>
-      <c r="B12" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Haryana</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Karnal</t>
-        </is>
-      </c>
-      <c r="E12" t="n">
-        <v>93</v>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">76.79153848439455,29.60345713009613,0 76.79218590259552,29.60346879053143,0 76.79220467805862,29.6035098935551,0 76.79286886006594,29.60351193413032,0 76.79300229996443,29.60507995821474,0 76.79156664758921,29.60507150453436,0 76.79153848439455,29.60345713009613,0 </t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>5.822398904355146</v>
-      </c>
-      <c r="H12" t="inlineStr"/>
-      <c r="I12" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
-        <v>148916</v>
-      </c>
-      <c r="B13" t="n">
-        <v>1</v>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Haryana</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Karnal</t>
-        </is>
-      </c>
-      <c r="E13" t="n">
-        <v>93</v>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t xml:space="preserve">76.79156698286533,29.60505576319654,0 76.79153110831976,29.6029335751619,0 76.79281890392303,29.60289626156619,0 76.79292183369398,29.60447449800285,0 76.79561041295528,29.60444243212232,0 76.79564695805311,29.60560321050067,0 76.79361015558243,29.60558892676959,0 76.79358702152967,29.60508316478298,0 76.79156698286533,29.60505576319654,0 </t>
-        </is>
-      </c>
-      <c r="G13" t="n">
-        <v>14.8626122193352</v>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-    </row>
-    <row r="14">
-      <c r="A14" t="n">
-        <v>162157</v>
-      </c>
-      <c r="B14" t="n">
-        <v>1</v>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Haryana</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Karnal</t>
-        </is>
-      </c>
-      <c r="E14" t="n">
-        <v>93</v>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t xml:space="preserve">76.8218494579196,29.59333652995871,0 76.82179111987352,29.59050330299646,0 76.823835298419,29.59051117480125,0 76.82387385517359,29.59327472342791,0 76.8218494579196,29.59333652995871,0 </t>
-        </is>
-      </c>
-      <c r="G14" t="n">
-        <v>15.109446777607</v>
-      </c>
-      <c r="H14" t="inlineStr"/>
-      <c r="I14" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>91030</v>
-      </c>
-      <c r="B15" t="n">
-        <v>1</v>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Haryana</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Karnal</t>
-        </is>
-      </c>
-      <c r="E15" t="n">
-        <v>93</v>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t xml:space="preserve">76.8630990682924,29.63940816250791,0 76.86483687865933,29.63940159001277,0 76.86501986946946,29.63959163172415,0 76.86440447381737,29.64069315105209,0 76.86738245003909,29.64065566946141,0 76.86737593991825,29.6416903457238,0 76.86544409039182,29.64174443518188,0 76.86548271184269,29.64217382977703,0 76.86421629146145,29.64105403160758,0 76.86379866461104,29.64065235492138,0 76.86316733893246,29.64005216912123,0 76.8630990682924,29.63940816250791,0 76.8630990682924,29.63940816250791,0 </t>
-        </is>
-      </c>
-      <c r="G15" t="n">
-        <v>13.41925492986151</v>
-      </c>
-      <c r="H15" t="inlineStr"/>
-      <c r="I15" t="inlineStr"/>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>157810</v>
-      </c>
-      <c r="B16" t="n">
-        <v>2</v>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Haryana</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Karnal</t>
-        </is>
-      </c>
-      <c r="E16" t="n">
-        <v>93</v>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t xml:space="preserve">76.95170726627111,29.55403247350593,0 76.95148229598999,29.55359061724143,0 76.95412326604128,29.55354220251017,0 76.95408102124929,29.55296414049333,0 76.95548582822084,29.55295159925249,0 76.95549387484789,29.55378398428009,0 76.95754375308752,29.55377931780991,0 76.95755112916231,29.55402955696927,0 76.95756018161774,29.55509875366953,0 76.95751760154963,29.55512529386927,0 76.95753067731857,29.5556219734638,0 76.95619024336338,29.55566017948533,0 76.95621572434902,29.55675298224442,0 76.95479918271303,29.55663574056086,0 76.95478409528732,29.5540569724106,0 76.95170726627111,29.55403247350593,0 </t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>24.23821727873494</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Modified</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr"/>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>154982</v>
-      </c>
-      <c r="B17" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Haryana</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Karnal</t>
-        </is>
-      </c>
-      <c r="E17" t="n">
-        <v>93</v>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">77.03992713242769,29.5208540503599,0 77.03893203288317,29.52084267213356,0 77.0389199629426,29.52032335685249,0 77.03925121575594,29.52029243125167,0 77.03926999121904,29.5192415387079,0 77.04027783125639,29.51923512011912,0 77.04030867666006,29.51868107767235,0 77.04195488244295,29.51865890424114,0 77.04202059656382,29.5202801777091,0 77.03990165144205,29.52031518782676,0 77.03992713242769,29.5208540503599,0 </t>
-        </is>
-      </c>
-      <c r="G17" t="n">
-        <v>11.66686954406143</v>
-      </c>
-      <c r="H17" t="inlineStr"/>
-      <c r="I17" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>157427</v>
-      </c>
-      <c r="B18" t="n">
-        <v>1</v>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Haryana</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Karnal</t>
-        </is>
-      </c>
-      <c r="E18" t="n">
-        <v>93</v>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t xml:space="preserve">76.90743673592806,29.49786421451441,0 76.90570000559092,29.49837985143907,0 76.90442763268948,29.4983544636044,0 76.9044142216444,29.49782452757951,0 76.90354317426682,29.49782919663147,0 76.90337050706148,29.49880152201532,0 76.90299030393362,29.49854385086144,0 76.90257422626019,29.49783736747192,0 76.90157141536474,29.49712154098565,0 76.90261781215668,29.49703749742996,0 76.90261479467154,29.49648508440634,0 76.90187584608793,29.49653235917284,0 76.90173000097275,29.49575203088221,0 76.90162371844053,29.4952232485336,0 76.90295342355967,29.49523433781649,0 76.90292123705149,29.49601583737938,0 76.90374366939068,29.4959096144919,0 76.90377920866013,29.49565310326863,0 76.90415270626545,29.4957316033593,0 76.90743003040552,29.49579843052609,0 76.90743673592806,29.49786421451441,0 </t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>35.2552433506886</v>
-      </c>
-      <c r="H18" t="inlineStr"/>
-      <c r="I18" t="inlineStr"/>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>157430</v>
-      </c>
-      <c r="B19" t="n">
-        <v>1</v>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Haryana</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Karnal</t>
-        </is>
-      </c>
-      <c r="E19" t="n">
-        <v>93</v>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">76.90796580165625,29.49642030043121,0 76.90568089485168,29.49629890332123,0 76.90560277551413,29.4968209682256,0 76.9036752730608,29.49671795619093,0 76.90381642431021,29.49572284870534,0 76.90565206110477,29.49575144723875,0 76.90567385405302,29.49471051378573,0 76.9066870585084,29.49471226473408,0 76.90670348703861,29.49526760565787,0 76.90807610750198,29.49528628233596,0 76.90812505781651,29.49578588219681,0 76.90913625061512,29.49581097885378,0 76.90927874296904,29.49629073235667,0 76.90813176333904,29.49725052436257,0 76.90807811915874,29.49645765335886,0 76.90796580165625,29.49642030043121,0 </t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>16.81185589804555</v>
-      </c>
-      <c r="H19" t="inlineStr"/>
-      <c r="I19" t="inlineStr"/>
+          <t>Gurdaspur</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25-10-2020</t>
+        </is>
+      </c>
+      <c r="F10" t="n">
+        <v>127</v>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>32.03254597074562-75.05570534616709,32.03254568651629-75.05528926849364,32.03255876106382-75.05473639816046,32.03256245604429-75.05356024950743,32.03213497423683-75.05356762558222,32.032121899628805-75.05405511707067,32.032115930785416-75.05471862852573,32.032110814633604-75.05532816052437,32.03209859271427-75.05564231425524,32.03233962003194-75.05574859678745,32.032321429313114-75.05646273493767,32.03220432647417-75.05688752979042,32.03191952719727-75.05658142268658,32.031802708076015-75.05800299346447,32.03221427453669-75.05798857659101,32.03237941221677-75.05700621753931,32.03223616027044-75.05691032856703</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4.098688523003958</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Kushiluv- Polygon data(internship).xlsx
+++ b/Kushiluv- Polygon data(internship).xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -55,11 +58,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -425,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,10 +481,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>194900</v>
+        <v>195924</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -489,29 +493,27 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Gurdaspur</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>25-10-2022</t>
-        </is>
+          <t>Sangrur</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="n">
+        <v>45096</v>
       </c>
       <c r="F2" t="n">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>32.02254879598777-75.04611745476723,32.023000484550025-75.04663176834583,32.02314886759427-75.04678532481194,32.023529488901865-75.04718095064163,32.023529488901865-75.04718095064163,32.02360851239556-75.04674978554249,32.0237941320605-75.04674542695284,32.024085494481994-75.04670251160859,32.02406190126673-75.0452671945095,32.0242026077015-75.04526048898698,32.02420147068069-75.04457987844944,32.02466679527601-75.04457250237465,32.025161963996524-75.04459463059902,32.025214834895785-75.0432213395834,32.02512017890939-75.04322469234467,32.025089763902024-75.04346139729023,32.02488709167908-75.04346609115602,32.02484985451785-75.04323810338974,32.024695789155466-75.04326090216637,32.024644907733496-75.043891556561,32.02426031149006-75.04393648356199,32.0241980596181-75.0445071235299,32.02356644234266-75.04454266279936,32.023556493340834-75.04524104297161,32.02337684260772-75.04533424973488,32.023364051007285-75.04571679979563,32.023068990927904-75.04571042954922,32.02303090025108-75.0460460409522</t>
+          <t>30.570212250344493-75.74285175651312,30.569905965745214-75.74303448200226,30.569882005646246-75.74362356215715,30.569514231818104-75.74375532567501,30.569369315845066-75.7434394955635,30.568719500722363-75.74383411556482,30.568748368656713-75.74429914355278,30.568599121343443-75.7443031668663,30.56885171579133-75.74639361351728,30.56786644938405-75.7463912665844,30.567483656395908-75.74661422520876,30.567459407015466-75.74749901890755,30.567811888484847-75.74753656983376,30.56785547947027-75.74750572443008,30.56894928924193-75.7475533336401,30.568774638469527-75.74642177671194,30.568878274255056-75.74642948806286,30.568968053355785-75.74735719710588,30.569207656040888-75.74736792594194,30.569465156712038-75.7473474740982,30.56949056029944-75.74755433946848,30.56999718727271-75.74753690510988,30.570018837939116-75.74827283620834,30.57164695420592-75.74829362332821,30.57162934529319-75.74692469090223,30.57164031478016-75.74549742043018,30.570686542118036-75.74549876153469,30.570681057320773-75.74481144547462,30.570305203631953-75.74478730559349</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7.871343471078505</v>
+        <v>30.88992760971416</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>194899</v>
+        <v>195917</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -523,32 +525,30 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Kurukshetra</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>25-5-2015</t>
-        </is>
+          <t>Panipat</t>
+        </is>
+      </c>
+      <c r="E3" s="2" t="n">
+        <v>45096</v>
       </c>
       <c r="F3" t="n">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>29.92402080154259-76.58455945551395,29.925621592185653-76.5846586972475,29.925655880031815-76.58389862626791,29.929506504350787-76.58401127904654,29.929471636703582-76.58114768564701,29.928454948852934-76.58117987215519,29.928379692037325-76.5825729444623,29.926265504341583-76.58250957727432,29.92618501554991-76.5803674980998,29.92462869239892-76.58046841621399,29.92457319200147-76.58016800880432,29.9240565428381-76.580153927207</t>
+          <t>29.226596119121965-76.97419289499521,29.226707889959474-76.97216380387545,29.226707889959474-76.97216380387545,29.228222343523118-76.97216715663671,29.228287005744345-76.97630479931831,29.226388377188908-76.97692941874266</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>39.71442347686874</v>
+        <v>19.97040285883758</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>194900</v>
+        <v>195924</v>
       </c>
       <c r="B4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -557,66 +557,62 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Gurdaspur</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>25-5-2022</t>
-        </is>
+          <t>Sangrur</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="n">
+        <v>45096</v>
       </c>
       <c r="F4" t="n">
-        <v>127</v>
+        <v>141</v>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>32.019797114600735-75.04324480891229,32.020960051187565-75.04445146769285,32.02116529048026-75.04418358206749,32.021330732345525-75.04397135227919,32.021359443016784-75.04378527402876,32.02136768667321-75.04344832152128,32.02119599105515-75.04341244697571,32.02123578808136-75.04323575645685,32.02135233641581-75.0431264564395,32.02145410288905-75.04297658801079,32.02136285418504-75.04283241927624,32.02156354436121-75.04259906709194,32.021724295028584-75.0425630249083,32.02248682721329-75.04250586032867,32.02303260580412-75.04248272627592,32.02301754008459-75.041798427701,32.02241974170379-75.04181753844023,32.022469487319356-75.04147253930569,32.02195099454828-75.0414789095521,32.02192683225877-75.0418309494853,32.021614427494654-75.04182156175376,32.02140265113879-75.04181418567897,32.021374224745024-75.04138335585594,32.02064593752936-75.04139341413975,32.02062234342829-75.04185877740383,32.02030822861225-75.04187855869532,32.020285487226296-75.04248172044754,32.020257913288255-75.0432002171874</t>
+          <t>30.561027910921187-75.74838481843472,30.561075835486864-75.74718721210957,30.561116542478885-75.74593160301447,30.561785751431326-75.74597451835871,30.5617990316313-75.74507363140583,30.560524990256354-75.74504479765892,30.560478797642087-75.74590511620045,30.560472157451976-75.74612472206354,30.56030384291616-75.74612438678741,30.5602940269651-75.74766028672457,30.5604173036902-75.74765760451555,30.56040229107632-75.74912544339895</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>11.14072702500456</v>
+        <v>8.294462181977583</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>194898</v>
+        <v>195921</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>HARYANA</t>
+          <t>PUNJAB</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Panipat</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>25-10-2022</t>
-        </is>
+          <t>Bathinda</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="n">
+        <v>45096</v>
       </c>
       <c r="F5" t="n">
-        <v>121</v>
+        <v>84</v>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>29.364067276362118-77.05227803438902,29.368772762162102-77.05263946205378,29.36934603115276-77.05183111131191,29.369777295605296-77.05074816942215,29.366963817288873-77.04812731593847</t>
+          <t>30.245564408739-74.89460952579975,30.247195338320516-74.8946088552475,30.247449344984325-74.892469458282,30.245426252032658-74.89221565425395</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>38.2995890893251</v>
+        <v>10.93759842907927</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>194891</v>
+        <v>195921</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -625,66 +621,62 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Gurdaspur</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>25-10-2022</t>
-        </is>
+          <t>Bathinda</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>45096</v>
       </c>
       <c r="F6" t="n">
-        <v>127</v>
+        <v>84</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>32.01054198972966-75.01154579222202,32.01025683880686-75.01123532652855,32.009818449516274-75.01053225249052,32.009569971127405-75.01007225364447,32.01055620460786-75.01001559197903,32.01053829386095-75.00867649912834,32.01082713976531-75.00866442918777,32.01085158927839-75.0092625617981,32.01095166163617-75.0093262642622,32.01094910296929-75.010123886168,32.01096445496948-75.01061137765646,32.01054710708606-75.01059997826815,32.010957347562304-75.01069318503141,32.0109283493353-75.01134261488914</t>
+          <t>30.252706295557765-74.89442210644484,30.252433767046792-74.89994678646326,30.25040903899494-74.8997201398015,30.250688813657817-74.8972736299038,30.251573892644416-74.89719182252884,30.25175577307152-74.89481639117002</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>4.796419143902971</v>
+        <v>20.05406191465647</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>194897</v>
+        <v>195918</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>HARYANA</t>
+          <t>PUNJAB</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Panipat</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>25-10-2022</t>
-        </is>
+          <t>Tarn Taran</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>45096</v>
       </c>
       <c r="F7" t="n">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>29.364081886378845-77.05228742212057,29.36875260126728-77.05873679369688,29.370538432000895-77.0552197471261,29.3703496823927-77.05334957689047,29.367574204638597-77.05264985561371</t>
+          <t>31.304026410369165-74.67083685100079,31.304022399825403-74.67218969017267,31.305022452274617-74.67217493802309,31.3056692866186-74.67220511287451,31.30724395733098-74.67217963188887,31.30724882711044-74.67077549546957</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>54.38690059495871</v>
+        <v>11.61850832827422</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>194891</v>
+        <v>195920</v>
       </c>
       <c r="B8" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -693,92 +685,22 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Gurdaspur</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>25-10-2022</t>
-        </is>
+          <t>Tarn Taran</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>45035</v>
       </c>
       <c r="F8" t="n">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>31.968251787310155-74.94220767170191,31.970624176324986-74.94218319654465,31.970651480769135-74.94151130318642,31.970628727066238-74.94083035737276,31.97007495708298-74.94080554693937,31.97010140842163-74.93935782462358,31.969992189941824-74.93935246020555,31.96954080906498-74.94013767689466,31.968447189609417-74.94006089866163,31.96845174045849-74.94040170684458,31.9684747791291-74.9407646432519,31.96900153826462-74.94081627577543,31.96900153826462-74.94081627577543,31.969374704894463-74.94021881371737,31.969417937515725-74.94029995054007,31.968781676422747-74.94125548750162</t>
+          <t>31.307241952127583-74.6612811461091,31.307376300659758-74.66097939759493,31.307010207620777-74.66068904846907,31.30666301948074-74.66058008372784,31.305877831022826-74.66076247394085,31.304723955920455-74.66139312833546,31.302650497372454-74.66228663921356,31.302586041242847-74.66440759599209,31.30342196220387-74.66450180858374,31.303465219049713-74.66580770909785,31.30557446751293-74.66596528887749,31.305646942547913-74.66451320797205,31.306159708989416-74.66446191072464,31.3061508287005-74.66423492878677,31.30668908728157-74.66419905424118,31.307726923645042-74.66418463736774,31.3077243455396-74.6618477627635,31.30716489499391-74.661780372262</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10.57035378793225</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>194891</v>
-      </c>
-      <c r="B9" t="n">
-        <v>2</v>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>PUNJAB</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Gurdaspur</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>25-10-2021</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>127</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>31.99517726063875-75.01095302402973,31.994942675519887-75.01084037125109,31.994660888238343-75.0107179954648,31.994356636619205-75.01059796661139,31.994085652785202-75.01046687364578,31.993802725472452-75.0103475153446,31.99352292514097-75.01024022698402,31.993524346892805-75.01046855002642,31.993524346892805-75.01081053167582,31.993547094918746-75.0112085044384,31.993556478477824-75.01141402870417,31.9940927615004-75.01144152134657,31.99409731107785-75.01184083521366,31.994093045849016-75.01216974109413,31.993680170757536-75.01215096563101,31.993235446472337-75.01213151961565,31.99300313120245-75.01212783157824,31.99298095174567-75.01144286245108,31.99238494792413-75.0114519149065,31.99183415278117-75.0114468857646,31.991858891715005-75.01165609806776,31.99207443294825-75.01216068863869,31.9923203995679-75.01250501722097,31.992591672970775-75.01269277185202,31.992842472195512-75.01283928751945,31.99301137740937-75.01286912709475,31.993163789927962-75.01313298940659,31.99337534718327-75.0134189799428,31.9935328774032-75.01362081617118,31.99354652621816-75.01335460692644,31.99357808909504-75.01302938908339,31.99357808909504-75.01281045377254,31.993931251354876-75.01279067248106,31.99412062765873-75.01278262585402,31.994108116323396-75.0125727429986,31.994088780619975-75.01230452209711,31.994124892886294-75.01214426010847,31.99438308095886-75.0121221318841,31.994583261519278-75.01211609691381,31.99460003799525-75.01184117048979,31.994616814468177-75.01150757074356,31.994830927488607-75.01149583607912,31.994987602170927-75.01148946583271,31.995116410738277-75.01147840172052,31.995114989011146-75.01124773174524</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>10.13084356885098</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>194891</v>
-      </c>
-      <c r="B10" t="n">
-        <v>1</v>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>PUNJAB</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Gurdaspur</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>25-10-2020</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>127</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>32.03254597074562-75.05570534616709,32.03254568651629-75.05528926849364,32.03255876106382-75.05473639816046,32.03256245604429-75.05356024950743,32.03213497423683-75.05356762558222,32.032121899628805-75.05405511707067,32.032115930785416-75.05471862852573,32.032110814633604-75.05532816052437,32.03209859271427-75.05564231425524,32.03233962003194-75.05574859678745,32.032321429313114-75.05646273493767,32.03220432647417-75.05688752979042,32.03191952719727-75.05658142268658,32.031802708076015-75.05800299346447,32.03221427453669-75.05798857659101,32.03237941221677-75.05700621753931,32.03223616027044-75.05691032856703</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>4.098688523003958</v>
+        <v>48.37050751439378</v>
       </c>
     </row>
   </sheetData>

--- a/Kushiluv- Polygon data(internship).xlsx
+++ b/Kushiluv- Polygon data(internship).xlsx
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -496,8 +492,10 @@
           <t>Sangrur</t>
         </is>
       </c>
-      <c r="E2" s="2" t="n">
-        <v>45096</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>10-18-2021</t>
+        </is>
       </c>
       <c r="F2" t="n">
         <v>141</v>
@@ -528,8 +526,10 @@
           <t>Panipat</t>
         </is>
       </c>
-      <c r="E3" s="2" t="n">
-        <v>45096</v>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>10-18-2021</t>
+        </is>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -560,8 +560,10 @@
           <t>Sangrur</t>
         </is>
       </c>
-      <c r="E4" s="2" t="n">
-        <v>45096</v>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>10-18-2021</t>
+        </is>
       </c>
       <c r="F4" t="n">
         <v>141</v>
@@ -592,8 +594,10 @@
           <t>Bathinda</t>
         </is>
       </c>
-      <c r="E5" s="2" t="n">
-        <v>45096</v>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>10-18-2020</t>
+        </is>
       </c>
       <c r="F5" t="n">
         <v>84</v>
@@ -624,8 +628,10 @@
           <t>Bathinda</t>
         </is>
       </c>
-      <c r="E6" s="2" t="n">
-        <v>45096</v>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>10-18-2021</t>
+        </is>
       </c>
       <c r="F6" t="n">
         <v>84</v>
@@ -656,8 +662,10 @@
           <t>Tarn Taran</t>
         </is>
       </c>
-      <c r="E7" s="2" t="n">
-        <v>45096</v>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>10-18-2021</t>
+        </is>
       </c>
       <c r="F7" t="n">
         <v>124</v>
@@ -688,8 +696,10 @@
           <t>Tarn Taran</t>
         </is>
       </c>
-      <c r="E8" s="2" t="n">
-        <v>45035</v>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>10-18-2021</t>
+        </is>
       </c>
       <c r="F8" t="n">
         <v>123</v>
